--- a/DataSets/bike-share-daily.xlsx
+++ b/DataSets/bike-share-daily.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Dropbox/Repos/MLCourse/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSubrama\Documents\Repos\Machine-Learning-Course-2018\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26640" yWindow="680" windowWidth="21600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="27570" yWindow="680" windowWidth="21600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$P$732</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -219,6 +216,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -489,13 +489,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P732"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -595,7 +595,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -645,7 +645,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -695,7 +695,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -745,7 +745,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -795,7 +795,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -845,7 +845,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -895,7 +895,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -945,7 +945,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -995,7 +995,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>4189</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>4036</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>4595</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>4451</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>4714</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>4333</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>4362</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>4803</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>4105</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>5805</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>4492</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>4978</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>4677</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>4679</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>4788</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>4968</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>5342</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>4906</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>4548</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>3915</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>4586</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>4966</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>4891</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>5180</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>4844</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>4835</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>4507</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>4790</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>4991</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>5305</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>4648</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>5225</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>5515</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>6043</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>4592</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>5336</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>5084</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>5538</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>5923</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>4541</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>4656</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>4576</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>4866</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>4905</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>4694</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>4153</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>5191</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>5895</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>5130</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>4334</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>4634</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>5204</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>5058</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>5046</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>4713</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>4763</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>4785</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>4760</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>4539</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>4795</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>4630</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>4456</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>4765</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>4985</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>5511</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>5117</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>4563</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>5217</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>5041</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
@@ -15695,7 +15695,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
@@ -15795,7 +15795,7 @@
         <v>4068</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>4186</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -15895,7 +15895,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>3926</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>4109</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>4486</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
@@ -16895,7 +16895,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
@@ -17195,7 +17195,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>3613</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
@@ -17795,7 +17795,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>346</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>347</v>
       </c>
@@ -17895,7 +17895,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>348</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>349</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>350</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>351</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>352</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>353</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>354</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>355</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>356</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>357</v>
       </c>
@@ -18395,7 +18395,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>358</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>359</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>360</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>361</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>362</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>363</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>364</v>
       </c>
@@ -18745,7 +18745,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>365</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>366</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>367</v>
       </c>
@@ -18895,7 +18895,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>368</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>369</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>370</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>371</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>372</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>373</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>374</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>375</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>376</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>377</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>378</v>
       </c>
@@ -19445,7 +19445,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>379</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>380</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>381</v>
       </c>
@@ -19595,7 +19595,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>382</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>383</v>
       </c>
@@ -19695,7 +19695,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>384</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>385</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>386</v>
       </c>
@@ -19845,7 +19845,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>387</v>
       </c>
@@ -19895,7 +19895,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>388</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>389</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>390</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>391</v>
       </c>
@@ -20095,7 +20095,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>392</v>
       </c>
@@ -20145,7 +20145,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>393</v>
       </c>
@@ -20195,7 +20195,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>394</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>395</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>396</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>397</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>4579</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>398</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>399</v>
       </c>
@@ -20495,7 +20495,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>400</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>401</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>402</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>403</v>
       </c>
@@ -20695,7 +20695,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>404</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>405</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>406</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>407</v>
       </c>
@@ -20895,7 +20895,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>408</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>409</v>
       </c>
@@ -20995,7 +20995,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>410</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>411</v>
       </c>
@@ -21095,7 +21095,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>412</v>
       </c>
@@ -21145,7 +21145,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>413</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>414</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>4318</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>415</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>416</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>3129</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>417</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>418</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>4773</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>419</v>
       </c>
@@ -21495,7 +21495,7 @@
         <v>5062</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>420</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>421</v>
       </c>
@@ -21595,7 +21595,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>422</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>423</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>4322</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>424</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>4363</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>425</v>
       </c>
@@ -21795,7 +21795,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>426</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>427</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>428</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>429</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>430</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>431</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>432</v>
       </c>
@@ -22145,7 +22145,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>433</v>
       </c>
@@ -22195,7 +22195,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>434</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>435</v>
       </c>
@@ -22295,7 +22295,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>436</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>437</v>
       </c>
@@ -22395,7 +22395,7 @@
         <v>5298</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>438</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>5847</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>439</v>
       </c>
@@ -22495,7 +22495,7 @@
         <v>6312</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>440</v>
       </c>
@@ -22545,7 +22545,7 @@
         <v>6192</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>441</v>
       </c>
@@ -22595,7 +22595,7 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>442</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>7836</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>443</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>444</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v>6153</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>445</v>
       </c>
@@ -22795,7 +22795,7 @@
         <v>6093</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>446</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>447</v>
       </c>
@@ -22895,7 +22895,7 @@
         <v>6871</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>448</v>
       </c>
@@ -22945,7 +22945,7 @@
         <v>8362</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>449</v>
       </c>
@@ -22995,7 +22995,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>450</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>4996</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>451</v>
       </c>
@@ -23095,7 +23095,7 @@
         <v>5558</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>452</v>
       </c>
@@ -23145,7 +23145,7 @@
         <v>5102</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>453</v>
       </c>
@@ -23195,7 +23195,7 @@
         <v>5698</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>454</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>6133</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>455</v>
       </c>
@@ -23295,7 +23295,7 @@
         <v>5459</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>456</v>
       </c>
@@ -23345,7 +23345,7 @@
         <v>6235</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>457</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>6041</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>458</v>
       </c>
@@ -23445,7 +23445,7 @@
         <v>5936</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>459</v>
       </c>
@@ -23495,7 +23495,7 @@
         <v>6772</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>460</v>
       </c>
@@ -23545,7 +23545,7 @@
         <v>6436</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>461</v>
       </c>
@@ -23595,7 +23595,7 @@
         <v>6457</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>462</v>
       </c>
@@ -23645,7 +23645,7 @@
         <v>6460</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>463</v>
       </c>
@@ -23695,7 +23695,7 @@
         <v>6857</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>464</v>
       </c>
@@ -23745,7 +23745,7 @@
         <v>5169</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>465</v>
       </c>
@@ -23795,7 +23795,7 @@
         <v>5585</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>466</v>
       </c>
@@ -23845,7 +23845,7 @@
         <v>5918</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>467</v>
       </c>
@@ -23895,7 +23895,7 @@
         <v>4862</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>468</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>469</v>
       </c>
@@ -23995,7 +23995,7 @@
         <v>6398</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>470</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>7460</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>471</v>
       </c>
@@ -24095,7 +24095,7 @@
         <v>7132</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>472</v>
       </c>
@@ -24145,7 +24145,7 @@
         <v>6370</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>473</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>6691</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>474</v>
       </c>
@@ -24245,7 +24245,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>475</v>
       </c>
@@ -24295,7 +24295,7 @@
         <v>6565</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>476</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>7290</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>477</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>6624</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>478</v>
       </c>
@@ -24445,7 +24445,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>479</v>
       </c>
@@ -24495,7 +24495,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>480</v>
       </c>
@@ -24545,7 +24545,7 @@
         <v>5633</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>481</v>
       </c>
@@ -24595,7 +24595,7 @@
         <v>6196</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>482</v>
       </c>
@@ -24645,7 +24645,7 @@
         <v>5026</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>483</v>
       </c>
@@ -24695,7 +24695,7 @@
         <v>6233</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>484</v>
       </c>
@@ -24745,7 +24745,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>485</v>
       </c>
@@ -24795,7 +24795,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>486</v>
       </c>
@@ -24845,7 +24845,7 @@
         <v>5572</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>487</v>
       </c>
@@ -24895,7 +24895,7 @@
         <v>5740</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>488</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>6169</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>489</v>
       </c>
@@ -24995,7 +24995,7 @@
         <v>6421</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>490</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>6296</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>491</v>
       </c>
@@ -25095,7 +25095,7 @@
         <v>6883</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>492</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>6359</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>493</v>
       </c>
@@ -25195,7 +25195,7 @@
         <v>6273</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>494</v>
       </c>
@@ -25245,7 +25245,7 @@
         <v>5728</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>495</v>
       </c>
@@ -25295,7 +25295,7 @@
         <v>4717</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>496</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>6572</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>497</v>
       </c>
@@ -25395,7 +25395,7 @@
         <v>7030</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>498</v>
       </c>
@@ -25445,7 +25445,7 @@
         <v>7429</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>499</v>
       </c>
@@ -25495,7 +25495,7 @@
         <v>6118</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>500</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>501</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>502</v>
       </c>
@@ -25645,7 +25645,7 @@
         <v>7424</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>503</v>
       </c>
@@ -25695,7 +25695,7 @@
         <v>7384</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>504</v>
       </c>
@@ -25745,7 +25745,7 @@
         <v>7639</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>505</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>8294</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>506</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>7129</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>507</v>
       </c>
@@ -25895,7 +25895,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>508</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>6073</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>509</v>
       </c>
@@ -25995,7 +25995,7 @@
         <v>5260</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>510</v>
       </c>
@@ -26045,7 +26045,7 @@
         <v>6770</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>511</v>
       </c>
@@ -26095,7 +26095,7 @@
         <v>6734</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>512</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>6536</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>513</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>6591</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>514</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>6043</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>515</v>
       </c>
@@ -26295,7 +26295,7 @@
         <v>5743</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>516</v>
       </c>
@@ -26345,7 +26345,7 @@
         <v>6855</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>517</v>
       </c>
@@ -26395,7 +26395,7 @@
         <v>7338</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>518</v>
       </c>
@@ -26445,7 +26445,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>519</v>
       </c>
@@ -26495,7 +26495,7 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>520</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>7641</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>521</v>
       </c>
@@ -26595,7 +26595,7 @@
         <v>6998</v>
       </c>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>522</v>
       </c>
@@ -26645,7 +26645,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>523</v>
       </c>
@@ -26695,7 +26695,7 @@
         <v>7055</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>524</v>
       </c>
@@ -26745,7 +26745,7 @@
         <v>7494</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>525</v>
       </c>
@@ -26795,7 +26795,7 @@
         <v>7736</v>
       </c>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>526</v>
       </c>
@@ -26845,7 +26845,7 @@
         <v>7498</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>527</v>
       </c>
@@ -26895,7 +26895,7 @@
         <v>6598</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>528</v>
       </c>
@@ -26945,7 +26945,7 @@
         <v>6664</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>529</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>4972</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>530</v>
       </c>
@@ -27045,7 +27045,7 @@
         <v>7421</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>531</v>
       </c>
@@ -27095,7 +27095,7 @@
         <v>7363</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>532</v>
       </c>
@@ -27145,7 +27145,7 @@
         <v>7665</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>533</v>
       </c>
@@ -27195,7 +27195,7 @@
         <v>7702</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>534</v>
       </c>
@@ -27245,7 +27245,7 @@
         <v>6978</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>535</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>5099</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>536</v>
       </c>
@@ -27345,7 +27345,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>537</v>
       </c>
@@ -27395,7 +27395,7 @@
         <v>6211</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>538</v>
       </c>
@@ -27445,7 +27445,7 @@
         <v>5905</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>539</v>
       </c>
@@ -27495,7 +27495,7 @@
         <v>5823</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>540</v>
       </c>
@@ -27545,7 +27545,7 @@
         <v>7458</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>541</v>
       </c>
@@ -27595,7 +27595,7 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>542</v>
       </c>
@@ -27645,7 +27645,7 @@
         <v>6779</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>543</v>
       </c>
@@ -27695,7 +27695,7 @@
         <v>7442</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>544</v>
       </c>
@@ -27745,7 +27745,7 @@
         <v>7335</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>545</v>
       </c>
@@ -27795,7 +27795,7 @@
         <v>6879</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>546</v>
       </c>
@@ -27845,7 +27845,7 @@
         <v>5463</v>
       </c>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>547</v>
       </c>
@@ -27895,7 +27895,7 @@
         <v>5687</v>
       </c>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>548</v>
       </c>
@@ -27945,7 +27945,7 @@
         <v>5531</v>
       </c>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>549</v>
       </c>
@@ -27995,7 +27995,7 @@
         <v>6227</v>
       </c>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>550</v>
       </c>
@@ -28045,7 +28045,7 @@
         <v>6660</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>551</v>
       </c>
@@ -28095,7 +28095,7 @@
         <v>7403</v>
       </c>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>552</v>
       </c>
@@ -28145,7 +28145,7 @@
         <v>6241</v>
       </c>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>553</v>
       </c>
@@ -28195,7 +28195,7 @@
         <v>6207</v>
       </c>
     </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>554</v>
       </c>
@@ -28245,7 +28245,7 @@
         <v>4840</v>
       </c>
     </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>555</v>
       </c>
@@ -28295,7 +28295,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>556</v>
       </c>
@@ -28345,7 +28345,7 @@
         <v>6569</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>557</v>
       </c>
@@ -28395,7 +28395,7 @@
         <v>6290</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>558</v>
       </c>
@@ -28445,7 +28445,7 @@
         <v>7264</v>
       </c>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>559</v>
       </c>
@@ -28495,7 +28495,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>560</v>
       </c>
@@ -28545,7 +28545,7 @@
         <v>7499</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>561</v>
       </c>
@@ -28595,7 +28595,7 @@
         <v>6969</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>562</v>
       </c>
@@ -28645,7 +28645,7 @@
         <v>6031</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>563</v>
       </c>
@@ -28695,7 +28695,7 @@
         <v>6830</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>564</v>
       </c>
@@ -28745,7 +28745,7 @@
         <v>6786</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>565</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>5713</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>566</v>
       </c>
@@ -28845,7 +28845,7 @@
         <v>6591</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>567</v>
       </c>
@@ -28895,7 +28895,7 @@
         <v>5870</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>568</v>
       </c>
@@ -28945,7 +28945,7 @@
         <v>4459</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>569</v>
       </c>
@@ -28995,7 +28995,7 @@
         <v>7410</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>570</v>
       </c>
@@ -29045,7 +29045,7 @@
         <v>6966</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>571</v>
       </c>
@@ -29095,7 +29095,7 @@
         <v>7592</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>572</v>
       </c>
@@ -29145,7 +29145,7 @@
         <v>8173</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>573</v>
       </c>
@@ -29195,7 +29195,7 @@
         <v>6861</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>574</v>
       </c>
@@ -29245,7 +29245,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>575</v>
       </c>
@@ -29295,7 +29295,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>576</v>
       </c>
@@ -29345,7 +29345,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>577</v>
       </c>
@@ -29395,7 +29395,7 @@
         <v>7105</v>
       </c>
     </row>
-    <row r="579" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>578</v>
       </c>
@@ -29445,7 +29445,7 @@
         <v>7216</v>
       </c>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>579</v>
       </c>
@@ -29495,7 +29495,7 @@
         <v>7580</v>
       </c>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>580</v>
       </c>
@@ -29545,7 +29545,7 @@
         <v>7261</v>
       </c>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>581</v>
       </c>
@@ -29595,7 +29595,7 @@
         <v>7175</v>
       </c>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>582</v>
       </c>
@@ -29645,7 +29645,7 @@
         <v>6824</v>
       </c>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>583</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>5464</v>
       </c>
     </row>
-    <row r="585" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>584</v>
       </c>
@@ -29745,7 +29745,7 @@
         <v>7013</v>
       </c>
     </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>585</v>
       </c>
@@ -29795,7 +29795,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="587" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>586</v>
       </c>
@@ -29845,7 +29845,7 @@
         <v>7534</v>
       </c>
     </row>
-    <row r="588" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>587</v>
       </c>
@@ -29895,7 +29895,7 @@
         <v>7286</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>588</v>
       </c>
@@ -29945,7 +29945,7 @@
         <v>5786</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>589</v>
       </c>
@@ -29995,7 +29995,7 @@
         <v>6299</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>590</v>
       </c>
@@ -30045,7 +30045,7 @@
         <v>6544</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>591</v>
       </c>
@@ -30095,7 +30095,7 @@
         <v>6883</v>
       </c>
     </row>
-    <row r="593" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>592</v>
       </c>
@@ -30145,7 +30145,7 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="594" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>593</v>
       </c>
@@ -30195,7 +30195,7 @@
         <v>7347</v>
       </c>
     </row>
-    <row r="595" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>594</v>
       </c>
@@ -30245,7 +30245,7 @@
         <v>7605</v>
       </c>
     </row>
-    <row r="596" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>595</v>
       </c>
@@ -30295,7 +30295,7 @@
         <v>7148</v>
       </c>
     </row>
-    <row r="597" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>596</v>
       </c>
@@ -30345,7 +30345,7 @@
         <v>7865</v>
       </c>
     </row>
-    <row r="598" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>597</v>
       </c>
@@ -30395,7 +30395,7 @@
         <v>4549</v>
       </c>
     </row>
-    <row r="599" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>598</v>
       </c>
@@ -30445,7 +30445,7 @@
         <v>6530</v>
       </c>
     </row>
-    <row r="600" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>599</v>
       </c>
@@ -30495,7 +30495,7 @@
         <v>7006</v>
       </c>
     </row>
-    <row r="601" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>600</v>
       </c>
@@ -30545,7 +30545,7 @@
         <v>7375</v>
       </c>
     </row>
-    <row r="602" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>601</v>
       </c>
@@ -30595,7 +30595,7 @@
         <v>7765</v>
       </c>
     </row>
-    <row r="603" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>602</v>
       </c>
@@ -30645,7 +30645,7 @@
         <v>7582</v>
       </c>
     </row>
-    <row r="604" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>603</v>
       </c>
@@ -30695,7 +30695,7 @@
         <v>6053</v>
       </c>
     </row>
-    <row r="605" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>604</v>
       </c>
@@ -30745,7 +30745,7 @@
         <v>5255</v>
       </c>
     </row>
-    <row r="606" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>605</v>
       </c>
@@ -30795,7 +30795,7 @@
         <v>6917</v>
       </c>
     </row>
-    <row r="607" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>606</v>
       </c>
@@ -30845,7 +30845,7 @@
         <v>7040</v>
       </c>
     </row>
-    <row r="608" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>607</v>
       </c>
@@ -30895,7 +30895,7 @@
         <v>7697</v>
       </c>
     </row>
-    <row r="609" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>608</v>
       </c>
@@ -30945,7 +30945,7 @@
         <v>7713</v>
       </c>
     </row>
-    <row r="610" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>609</v>
       </c>
@@ -30995,7 +30995,7 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="611" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>610</v>
       </c>
@@ -31045,7 +31045,7 @@
         <v>6140</v>
       </c>
     </row>
-    <row r="612" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>611</v>
       </c>
@@ -31095,7 +31095,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="613" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>612</v>
       </c>
@@ -31145,7 +31145,7 @@
         <v>6034</v>
       </c>
     </row>
-    <row r="614" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>613</v>
       </c>
@@ -31195,7 +31195,7 @@
         <v>6864</v>
       </c>
     </row>
-    <row r="615" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>614</v>
       </c>
@@ -31245,7 +31245,7 @@
         <v>7112</v>
       </c>
     </row>
-    <row r="616" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>615</v>
       </c>
@@ -31295,7 +31295,7 @@
         <v>6203</v>
       </c>
     </row>
-    <row r="617" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>616</v>
       </c>
@@ -31345,7 +31345,7 @@
         <v>7504</v>
       </c>
     </row>
-    <row r="618" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>617</v>
       </c>
@@ -31395,7 +31395,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="619" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>618</v>
       </c>
@@ -31445,7 +31445,7 @@
         <v>8227</v>
       </c>
     </row>
-    <row r="620" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>619</v>
       </c>
@@ -31495,7 +31495,7 @@
         <v>7525</v>
       </c>
     </row>
-    <row r="621" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>620</v>
       </c>
@@ -31545,7 +31545,7 @@
         <v>7767</v>
       </c>
     </row>
-    <row r="622" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>621</v>
       </c>
@@ -31595,7 +31595,7 @@
         <v>7870</v>
       </c>
     </row>
-    <row r="623" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>622</v>
       </c>
@@ -31645,7 +31645,7 @@
         <v>7804</v>
       </c>
     </row>
-    <row r="624" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>623</v>
       </c>
@@ -31695,7 +31695,7 @@
         <v>8009</v>
       </c>
     </row>
-    <row r="625" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>624</v>
       </c>
@@ -31745,7 +31745,7 @@
         <v>8714</v>
       </c>
     </row>
-    <row r="626" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>625</v>
       </c>
@@ -31795,7 +31795,7 @@
         <v>7333</v>
       </c>
     </row>
-    <row r="627" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>626</v>
       </c>
@@ -31845,7 +31845,7 @@
         <v>6869</v>
       </c>
     </row>
-    <row r="628" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>627</v>
       </c>
@@ -31895,7 +31895,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="629" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>628</v>
       </c>
@@ -31945,7 +31945,7 @@
         <v>7591</v>
       </c>
     </row>
-    <row r="630" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>629</v>
       </c>
@@ -31995,7 +31995,7 @@
         <v>7720</v>
       </c>
     </row>
-    <row r="631" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>630</v>
       </c>
@@ -32045,7 +32045,7 @@
         <v>8167</v>
       </c>
     </row>
-    <row r="632" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>631</v>
       </c>
@@ -32095,7 +32095,7 @@
         <v>8395</v>
       </c>
     </row>
-    <row r="633" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>632</v>
       </c>
@@ -32145,7 +32145,7 @@
         <v>7907</v>
       </c>
     </row>
-    <row r="634" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>633</v>
       </c>
@@ -32195,7 +32195,7 @@
         <v>7436</v>
       </c>
     </row>
-    <row r="635" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>634</v>
       </c>
@@ -32245,7 +32245,7 @@
         <v>7538</v>
       </c>
     </row>
-    <row r="636" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>635</v>
       </c>
@@ -32295,7 +32295,7 @@
         <v>7733</v>
       </c>
     </row>
-    <row r="637" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>636</v>
       </c>
@@ -32345,7 +32345,7 @@
         <v>7393</v>
       </c>
     </row>
-    <row r="638" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>637</v>
       </c>
@@ -32395,7 +32395,7 @@
         <v>7415</v>
       </c>
     </row>
-    <row r="639" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>638</v>
       </c>
@@ -32445,7 +32445,7 @@
         <v>8555</v>
       </c>
     </row>
-    <row r="640" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>639</v>
       </c>
@@ -32495,7 +32495,7 @@
         <v>6889</v>
       </c>
     </row>
-    <row r="641" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>640</v>
       </c>
@@ -32545,7 +32545,7 @@
         <v>6778</v>
       </c>
     </row>
-    <row r="642" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>641</v>
       </c>
@@ -32595,7 +32595,7 @@
         <v>4639</v>
       </c>
     </row>
-    <row r="643" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>642</v>
       </c>
@@ -32645,7 +32645,7 @@
         <v>7572</v>
       </c>
     </row>
-    <row r="644" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>643</v>
       </c>
@@ -32695,7 +32695,7 @@
         <v>7328</v>
       </c>
     </row>
-    <row r="645" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>644</v>
       </c>
@@ -32745,7 +32745,7 @@
         <v>8156</v>
       </c>
     </row>
-    <row r="646" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>645</v>
       </c>
@@ -32795,7 +32795,7 @@
         <v>7965</v>
       </c>
     </row>
-    <row r="647" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>646</v>
       </c>
@@ -32845,7 +32845,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="648" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>647</v>
       </c>
@@ -32895,7 +32895,7 @@
         <v>5478</v>
       </c>
     </row>
-    <row r="649" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>648</v>
       </c>
@@ -32945,7 +32945,7 @@
         <v>6392</v>
       </c>
     </row>
-    <row r="650" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>649</v>
       </c>
@@ -32995,7 +32995,7 @@
         <v>7691</v>
       </c>
     </row>
-    <row r="651" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>650</v>
       </c>
@@ -33045,7 +33045,7 @@
         <v>7570</v>
       </c>
     </row>
-    <row r="652" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>651</v>
       </c>
@@ -33095,7 +33095,7 @@
         <v>7282</v>
       </c>
     </row>
-    <row r="653" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>652</v>
       </c>
@@ -33145,7 +33145,7 @@
         <v>7109</v>
       </c>
     </row>
-    <row r="654" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>653</v>
       </c>
@@ -33195,7 +33195,7 @@
         <v>6639</v>
       </c>
     </row>
-    <row r="655" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>654</v>
       </c>
@@ -33245,7 +33245,7 @@
         <v>5875</v>
       </c>
     </row>
-    <row r="656" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>655</v>
       </c>
@@ -33295,7 +33295,7 @@
         <v>7534</v>
       </c>
     </row>
-    <row r="657" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>656</v>
       </c>
@@ -33345,7 +33345,7 @@
         <v>7461</v>
       </c>
     </row>
-    <row r="658" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>657</v>
       </c>
@@ -33395,7 +33395,7 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="659" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>658</v>
       </c>
@@ -33445,7 +33445,7 @@
         <v>5424</v>
       </c>
     </row>
-    <row r="660" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>659</v>
       </c>
@@ -33495,7 +33495,7 @@
         <v>8090</v>
       </c>
     </row>
-    <row r="661" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>660</v>
       </c>
@@ -33545,7 +33545,7 @@
         <v>6824</v>
       </c>
     </row>
-    <row r="662" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>661</v>
       </c>
@@ -33595,7 +33595,7 @@
         <v>7058</v>
       </c>
     </row>
-    <row r="663" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>662</v>
       </c>
@@ -33645,7 +33645,7 @@
         <v>7466</v>
       </c>
     </row>
-    <row r="664" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>663</v>
       </c>
@@ -33695,7 +33695,7 @@
         <v>7693</v>
       </c>
     </row>
-    <row r="665" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>664</v>
       </c>
@@ -33745,7 +33745,7 @@
         <v>7359</v>
       </c>
     </row>
-    <row r="666" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>665</v>
       </c>
@@ -33795,7 +33795,7 @@
         <v>7444</v>
       </c>
     </row>
-    <row r="667" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>666</v>
       </c>
@@ -33845,7 +33845,7 @@
         <v>7852</v>
       </c>
     </row>
-    <row r="668" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>667</v>
       </c>
@@ -33895,7 +33895,7 @@
         <v>4459</v>
       </c>
     </row>
-    <row r="669" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>668</v>
       </c>
@@ -33945,7 +33945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="670" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>669</v>
       </c>
@@ -33995,7 +33995,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="671" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>670</v>
       </c>
@@ -34045,7 +34045,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="672" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>671</v>
       </c>
@@ -34095,7 +34095,7 @@
         <v>5986</v>
       </c>
     </row>
-    <row r="673" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>672</v>
       </c>
@@ -34145,7 +34145,7 @@
         <v>5847</v>
       </c>
     </row>
-    <row r="674" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>673</v>
       </c>
@@ -34195,7 +34195,7 @@
         <v>5138</v>
       </c>
     </row>
-    <row r="675" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>674</v>
       </c>
@@ -34245,7 +34245,7 @@
         <v>5107</v>
       </c>
     </row>
-    <row r="676" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>675</v>
       </c>
@@ -34295,7 +34295,7 @@
         <v>5259</v>
       </c>
     </row>
-    <row r="677" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>676</v>
       </c>
@@ -34345,7 +34345,7 @@
         <v>5686</v>
       </c>
     </row>
-    <row r="678" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>677</v>
       </c>
@@ -34395,7 +34395,7 @@
         <v>5035</v>
       </c>
     </row>
-    <row r="679" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>678</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>5315</v>
       </c>
     </row>
-    <row r="680" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>679</v>
       </c>
@@ -34495,7 +34495,7 @@
         <v>5992</v>
       </c>
     </row>
-    <row r="681" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>680</v>
       </c>
@@ -34545,7 +34545,7 @@
         <v>6536</v>
       </c>
     </row>
-    <row r="682" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>681</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>6852</v>
       </c>
     </row>
-    <row r="683" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>682</v>
       </c>
@@ -34645,7 +34645,7 @@
         <v>6269</v>
       </c>
     </row>
-    <row r="684" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>683</v>
       </c>
@@ -34695,7 +34695,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="685" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>684</v>
       </c>
@@ -34745,7 +34745,7 @@
         <v>5495</v>
       </c>
     </row>
-    <row r="686" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>685</v>
       </c>
@@ -34795,7 +34795,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="687" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>686</v>
       </c>
@@ -34845,7 +34845,7 @@
         <v>5698</v>
       </c>
     </row>
-    <row r="688" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>687</v>
       </c>
@@ -34895,7 +34895,7 @@
         <v>5629</v>
       </c>
     </row>
-    <row r="689" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>688</v>
       </c>
@@ -34945,7 +34945,7 @@
         <v>4669</v>
       </c>
     </row>
-    <row r="690" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>689</v>
       </c>
@@ -34995,7 +34995,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="691" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>690</v>
       </c>
@@ -35045,7 +35045,7 @@
         <v>5634</v>
       </c>
     </row>
-    <row r="692" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>691</v>
       </c>
@@ -35095,7 +35095,7 @@
         <v>5146</v>
       </c>
     </row>
-    <row r="693" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>692</v>
       </c>
@@ -35145,7 +35145,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="694" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>693</v>
       </c>
@@ -35195,7 +35195,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="695" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>694</v>
       </c>
@@ -35245,7 +35245,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="696" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>695</v>
       </c>
@@ -35295,7 +35295,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="697" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>696</v>
       </c>
@@ -35345,7 +35345,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="698" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>697</v>
       </c>
@@ -35395,7 +35395,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="699" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>698</v>
       </c>
@@ -35445,7 +35445,7 @@
         <v>5260</v>
       </c>
     </row>
-    <row r="700" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>699</v>
       </c>
@@ -35495,7 +35495,7 @@
         <v>5323</v>
       </c>
     </row>
-    <row r="701" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>700</v>
       </c>
@@ -35545,7 +35545,7 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="702" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>701</v>
       </c>
@@ -35595,7 +35595,7 @@
         <v>5191</v>
       </c>
     </row>
-    <row r="703" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>702</v>
       </c>
@@ -35645,7 +35645,7 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="704" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>703</v>
       </c>
@@ -35695,7 +35695,7 @@
         <v>6234</v>
       </c>
     </row>
-    <row r="705" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>704</v>
       </c>
@@ -35745,7 +35745,7 @@
         <v>6606</v>
       </c>
     </row>
-    <row r="706" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>705</v>
       </c>
@@ -35795,7 +35795,7 @@
         <v>5729</v>
       </c>
     </row>
-    <row r="707" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>706</v>
       </c>
@@ -35845,7 +35845,7 @@
         <v>5375</v>
       </c>
     </row>
-    <row r="708" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>707</v>
       </c>
@@ -35895,7 +35895,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="709" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>708</v>
       </c>
@@ -35945,7 +35945,7 @@
         <v>5582</v>
       </c>
     </row>
-    <row r="710" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>709</v>
       </c>
@@ -35995,7 +35995,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="711" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>710</v>
       </c>
@@ -36045,7 +36045,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="712" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>711</v>
       </c>
@@ -36095,7 +36095,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="713" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>712</v>
       </c>
@@ -36145,7 +36145,7 @@
         <v>5319</v>
       </c>
     </row>
-    <row r="714" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>713</v>
       </c>
@@ -36195,7 +36195,7 @@
         <v>5532</v>
       </c>
     </row>
-    <row r="715" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>714</v>
       </c>
@@ -36245,7 +36245,7 @@
         <v>5611</v>
       </c>
     </row>
-    <row r="716" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>715</v>
       </c>
@@ -36295,7 +36295,7 @@
         <v>5047</v>
       </c>
     </row>
-    <row r="717" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>716</v>
       </c>
@@ -36345,7 +36345,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="718" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>717</v>
       </c>
@@ -36395,7 +36395,7 @@
         <v>4585</v>
       </c>
     </row>
-    <row r="719" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>718</v>
       </c>
@@ -36445,7 +36445,7 @@
         <v>5557</v>
       </c>
     </row>
-    <row r="720" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>719</v>
       </c>
@@ -36495,7 +36495,7 @@
         <v>5267</v>
       </c>
     </row>
-    <row r="721" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>720</v>
       </c>
@@ -36545,7 +36545,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="722" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>721</v>
       </c>
@@ -36595,7 +36595,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="723" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>722</v>
       </c>
@@ -36645,7 +36645,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="724" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>723</v>
       </c>
@@ -36695,7 +36695,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="725" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>724</v>
       </c>
@@ -36745,7 +36745,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="726" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>725</v>
       </c>
@@ -36795,7 +36795,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="727" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>726</v>
       </c>
@@ -36845,7 +36845,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="728" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>727</v>
       </c>
@@ -36895,7 +36895,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="729" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>728</v>
       </c>
@@ -36945,7 +36945,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="730" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>729</v>
       </c>
@@ -36995,7 +36995,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="731" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>730</v>
       </c>
@@ -37045,7 +37045,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="732" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>731</v>
       </c>
@@ -37096,7 +37096,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P732"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37105,121 +37104,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
